--- a/Region Product Matrix.xlsx
+++ b/Region Product Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmcginnes\Documents\GitHub\space-apps-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CD801-CF01-4895-8548-9B26781D6F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C1F15-CE51-4F4A-84FE-966964CBA034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D0B2D93-19A7-49F0-B5A5-03C0B1FE6758}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Bagels</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overdue </t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,102 +456,102 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
